--- a/data/NekoDic2.xlsx
+++ b/data/NekoDic2.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takah\OneDrive\ドキュメント\Chatbot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takah\OneDrive\ドキュメント\Chatbot\OctoCat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A4DF1C-CD86-4586-AF40-73E38296B704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D86AD-CE70-4AB6-80BE-3D1040341CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1752" windowWidth="21600" windowHeight="11292" xr2:uid="{F514026D-D928-43B9-B2CD-CAAE11C6BFD2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F514026D-D928-43B9-B2CD-CAAE11C6BFD2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="195">
   <si>
     <t>Term</t>
     <phoneticPr fontId="1"/>
@@ -1628,6 +1628,16 @@
   </si>
   <si>
     <t>Purpose</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡理由</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1992,11 +2002,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6B739F-8AA0-426D-9186-45505CEBFFA5}">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2638,27 +2648,30 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D34" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="E34" t="s">
-        <v>47</v>
+        <v>138</v>
+      </c>
+      <c r="F34" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C35" t="s">
         <v>189</v>
@@ -2667,15 +2680,15 @@
         <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
         <v>189</v>
@@ -2684,12 +2697,12 @@
         <v>93</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
         <v>51</v>
@@ -2701,10 +2714,7 @@
         <v>93</v>
       </c>
       <c r="E37" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
@@ -2712,19 +2722,19 @@
         <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
@@ -2732,7 +2742,7 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
         <v>186</v>
@@ -2741,30 +2751,30 @@
         <v>187</v>
       </c>
       <c r="E39" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="F39" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="E40" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F40" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
@@ -2772,19 +2782,19 @@
         <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
@@ -2792,7 +2802,7 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="C42" t="s">
         <v>186</v>
@@ -2801,30 +2811,30 @@
         <v>187</v>
       </c>
       <c r="E42" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="F42" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="C43" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D43" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="E43" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F43" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
@@ -2832,19 +2842,19 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="E44" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F44" t="s">
-        <v>127</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
@@ -2852,7 +2862,7 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
         <v>186</v>
@@ -2861,30 +2871,30 @@
         <v>187</v>
       </c>
       <c r="E45" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="C46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D46" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="E46" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
@@ -2892,39 +2902,39 @@
         <v>157</v>
       </c>
       <c r="B47" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="E47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="C48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D48" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="E48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F48" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
@@ -2932,16 +2942,16 @@
         <v>56</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="F49" t="s">
         <v>158</v>
@@ -2949,7 +2959,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
         <v>61</v>
@@ -2964,12 +2974,12 @@
         <v>132</v>
       </c>
       <c r="F50" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
         <v>61</v>
@@ -2984,15 +2994,15 @@
         <v>132</v>
       </c>
       <c r="F51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
         <v>186</v>
@@ -3003,13 +3013,16 @@
       <c r="E52" t="s">
         <v>132</v>
       </c>
+      <c r="F52" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C53" t="s">
         <v>186</v>
@@ -3023,10 +3036,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
         <v>186</v>
@@ -3037,16 +3050,13 @@
       <c r="E54" t="s">
         <v>132</v>
       </c>
-      <c r="F54" t="s">
-        <v>126</v>
-      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
         <v>186</v>
@@ -3058,12 +3068,12 @@
         <v>132</v>
       </c>
       <c r="F55" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
         <v>60</v>
@@ -3075,15 +3085,15 @@
         <v>187</v>
       </c>
       <c r="E56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F56" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
         <v>60</v>
@@ -3103,27 +3113,27 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C58" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="E58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F58" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
         <v>68</v>
@@ -3135,15 +3145,15 @@
         <v>121</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F59" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" t="s">
         <v>68</v>
@@ -3163,7 +3173,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B61" t="s">
         <v>68</v>
@@ -3172,15 +3182,18 @@
         <v>191</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>71</v>
+        <v>135</v>
+      </c>
+      <c r="F61" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B62" t="s">
         <v>68</v>
@@ -3192,12 +3205,12 @@
         <v>93</v>
       </c>
       <c r="E62" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
         <v>68</v>
@@ -3209,12 +3222,12 @@
         <v>93</v>
       </c>
       <c r="E63" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B64" t="s">
         <v>68</v>
@@ -3226,10 +3239,7 @@
         <v>93</v>
       </c>
       <c r="E64" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
@@ -3237,19 +3247,19 @@
         <v>74</v>
       </c>
       <c r="B65" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D65" t="s">
         <v>93</v>
       </c>
       <c r="E65" t="s">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="F65" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
@@ -3257,19 +3267,19 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
       <c r="E66" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F66" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
@@ -3277,7 +3287,7 @@
         <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>147</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
         <v>186</v>
@@ -3286,10 +3296,10 @@
         <v>187</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F67" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
@@ -3297,7 +3307,7 @@
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s">
         <v>186</v>
@@ -3306,10 +3316,10 @@
         <v>187</v>
       </c>
       <c r="E68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F68" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
@@ -3317,36 +3327,36 @@
         <v>74</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D69" t="s">
-        <v>93</v>
+        <v>187</v>
       </c>
       <c r="E69" t="s">
-        <v>74</v>
+        <v>150</v>
+      </c>
+      <c r="F69" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C70" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="E70" t="s">
-        <v>112</v>
-      </c>
-      <c r="F70" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
@@ -3354,39 +3364,39 @@
         <v>110</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s">
         <v>189</v>
       </c>
       <c r="D71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F71" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
         <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E72" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F72" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
@@ -3394,44 +3404,44 @@
         <v>111</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="C73" t="s">
         <v>189</v>
       </c>
       <c r="D73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F73" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C74" t="s">
         <v>189</v>
       </c>
       <c r="D74" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="E74" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F74" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
         <v>51</v>
@@ -3440,10 +3450,10 @@
         <v>189</v>
       </c>
       <c r="D75" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F75" t="s">
         <v>117</v>
@@ -3451,30 +3461,30 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>51</v>
       </c>
       <c r="C76" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
       <c r="E76" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="F76" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B77" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C77" t="s">
         <v>186</v>
@@ -3482,13 +3492,16 @@
       <c r="D77" t="s">
         <v>187</v>
       </c>
+      <c r="E77" t="s">
+        <v>155</v>
+      </c>
       <c r="F77" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B78" t="s">
         <v>166</v>
@@ -3505,7 +3518,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s">
         <v>166</v>
@@ -3516,9 +3529,26 @@
       <c r="D79" t="s">
         <v>187</v>
       </c>
+      <c r="F79" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>169</v>
+      </c>
+      <c r="B80" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D80" t="s">
+        <v>187</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F79" xr:uid="{CE6B739F-8AA0-426D-9186-45505CEBFFA5}"/>
+  <autoFilter ref="A1:F80" xr:uid="{CE6B739F-8AA0-426D-9186-45505CEBFFA5}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/NekoDic2.xlsx
+++ b/data/NekoDic2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takah\OneDrive\ドキュメント\Chatbot\OctoCat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957D86AD-CE70-4AB6-80BE-3D1040341CBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ED5176-B217-4B55-8DB1-F89FAD99761A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F514026D-D928-43B9-B2CD-CAAE11C6BFD2}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="209">
   <si>
     <t>Term</t>
     <phoneticPr fontId="1"/>
@@ -1637,6 +1637,77 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TNM分類-T</t>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TESTCD=AJCC101</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>癌のステージ</t>
+    <rPh sb="0" eb="1">
+      <t>ガン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TESTCD=AJCC102</t>
+  </si>
+  <si>
+    <t>TESTCD=AJCC103</t>
+  </si>
+  <si>
+    <t>あくまでもAJCCの場合、RSCATに「AJCC V7」など</t>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TNM分類-N</t>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TNM分類-M</t>
+    <rPh sb="3" eb="5">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TESTCD=AJCC103</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TESTCD=AJCC104</t>
+  </si>
+  <si>
+    <t>治療歴</t>
+    <rPh sb="0" eb="3">
+      <t>チリョウレキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2002,11 +2073,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE6B739F-8AA0-426D-9186-45505CEBFFA5}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D34" sqref="D34"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3304,251 +3375,391 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
         <v>186</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E68" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="F68" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>202</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="C69" t="s">
         <v>186</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="E69" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="F69" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D70" t="s">
-        <v>93</v>
+        <v>200</v>
       </c>
       <c r="E70" t="s">
-        <v>74</v>
+        <v>198</v>
+      </c>
+      <c r="F70" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>204</v>
       </c>
       <c r="B71" t="s">
-        <v>75</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D71" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="F71" t="s">
-        <v>113</v>
+        <v>201</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D72" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>198</v>
       </c>
       <c r="F72" t="s">
-        <v>109</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="E73" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="F73" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D74" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="F74" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="C75" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D75" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>118</v>
-      </c>
-      <c r="F75" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C76" t="s">
         <v>189</v>
       </c>
       <c r="D76" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="E76" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>110</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D77" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="E77" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="F77" t="s">
-        <v>156</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
+        <v>75</v>
       </c>
       <c r="C78" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D78" t="s">
-        <v>187</v>
+        <v>78</v>
+      </c>
+      <c r="E78" t="s">
+        <v>114</v>
       </c>
       <c r="F78" t="s">
-        <v>168</v>
+        <v>113</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="B79" t="s">
-        <v>166</v>
+        <v>48</v>
       </c>
       <c r="C79" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>79</v>
+      </c>
+      <c r="E79" t="s">
+        <v>108</v>
       </c>
       <c r="F79" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" t="s">
+        <v>189</v>
+      </c>
+      <c r="D80" t="s">
+        <v>116</v>
+      </c>
+      <c r="E80" t="s">
+        <v>118</v>
+      </c>
+      <c r="F80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>111</v>
+      </c>
+      <c r="B81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" t="s">
+        <v>189</v>
+      </c>
+      <c r="D81" t="s">
+        <v>119</v>
+      </c>
+      <c r="E81" t="s">
+        <v>120</v>
+      </c>
+      <c r="F81" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" t="s">
+        <v>186</v>
+      </c>
+      <c r="D82" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" t="s">
+        <v>155</v>
+      </c>
+      <c r="F82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s">
+        <v>166</v>
+      </c>
+      <c r="C83" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" t="s">
+        <v>187</v>
+      </c>
+      <c r="F83" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s">
+        <v>166</v>
+      </c>
+      <c r="C84" t="s">
+        <v>186</v>
+      </c>
+      <c r="D84" t="s">
+        <v>187</v>
+      </c>
+      <c r="F84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
         <v>169</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B85" t="s">
         <v>166</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C85" t="s">
         <v>186</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D85" t="s">
         <v>187</v>
       </c>
     </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>208</v>
+      </c>
+      <c r="B86" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" t="s">
+        <v>191</v>
+      </c>
+      <c r="D86" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" t="s">
+        <v>143</v>
+      </c>
+      <c r="F87" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F80" xr:uid="{CE6B739F-8AA0-426D-9186-45505CEBFFA5}"/>
+  <autoFilter ref="A1:F85" xr:uid="{CE6B739F-8AA0-426D-9186-45505CEBFFA5}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
